--- a/storage/attendance/new_attendance_sheet_format.xlsx
+++ b/storage/attendance/new_attendance_sheet_format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -157,17 +157,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:2"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,15 +201,95 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="n">
+        <v>42581</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>42588</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>42595</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>42602</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>42597</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D6" s="3" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
